--- a/BadSmell.xlsx
+++ b/BadSmell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josea\Desktop\ESPOL\VI SEMESTRE\Diseño de software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D202CD3C-39F7-4C6B-AC05-6EA0EA2052BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F385D0C-50BC-4F58-AD0B-F3F1CD920751}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{EB634AAE-9329-4A58-A475-CFC50D04BB14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Nombre: Jose Andres Escobar L</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Tecnicas de Refactorizacion</t>
   </si>
   <si>
-    <t>Ejemplo Mal Olor</t>
-  </si>
-  <si>
-    <t>Ejemplo Refactorizado</t>
-  </si>
-  <si>
     <t>Long Method</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
   </si>
   <si>
     <t>Inappropriate Intimacy</t>
-  </si>
-  <si>
-    <t>Shutgun Surgery</t>
   </si>
   <si>
     <t>Clases Largas</t>
@@ -226,10 +217,6 @@
 cambios en diferentes clases también.</t>
   </si>
   <si>
-    <t>La clase usa atributos y metodos de otras
-clases.</t>
-  </si>
-  <si>
     <t>Ocurre cuando se accede más a datos
  de otras clases a la propia.</t>
   </si>
@@ -241,13 +228,57 @@
     <t>El código contiene switch or grupos de if
 muy complejos teniendo que modificarse
 cuando una nueva condición es agregada</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/LongMethod</t>
+  </si>
+  <si>
+    <t>Ejemplo Bad Smell Refactoring</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/LongClass</t>
+  </si>
+  <si>
+    <t>*Move Field: Un atributo es más utilizado por otra clase, entonces
+ es mejor mover ese atributo a la clase que más lo requiera.</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/PrimitiveObsession</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/DataClumps</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/SwitchStatements</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/DuplicateCode</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/DataClass</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/FeatureEnvy</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/InappropriateIntimacy</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/ShotgunSurgery</t>
+  </si>
+  <si>
+    <t>Shotgun Surgery</t>
+  </si>
+  <si>
+    <t>La clase usa atributos y metodos de otras
+clases causando una relacion bidireccional.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +315,22 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,10 +402,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -377,9 +425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -389,6 +434,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,20 +455,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,42 +782,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926FFE33-0100-4E7E-BBC2-F247778995F3}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -776,442 +829,429 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="18"/>
       <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="18"/>
       <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>12</v>
+      <c r="E17" s="13"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="18"/>
       <c r="D19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="18"/>
       <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="6" t="s">
+      <c r="C29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="E29" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="42">
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C31:C33"/>
@@ -1239,15 +1279,35 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{EB7899E5-4C6A-4FF2-A247-79117227C025}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{967FEF88-AB84-4878-ABA6-20D6ECFD5BED}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{406C3471-8800-43C2-94C6-7E54CD5FE5BB}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{1BD60C44-C0E1-47F3-93FA-4397CE981B52}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{B94921DC-3DD7-4EE1-A035-372AB7A3CE44}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{7BBBB77C-E39B-4AEA-8353-BE1FBA4944E8}"/>
+    <hyperlink ref="E26" r:id="rId7" xr:uid="{E7F6A0B4-D3CC-44CC-9D14-69F31B833F36}"/>
+    <hyperlink ref="E29" r:id="rId8" xr:uid="{8C423089-D8E2-49D5-8000-2034DB8BDD16}"/>
+    <hyperlink ref="E31" r:id="rId9" xr:uid="{2F4A76A8-219F-44F5-BC50-7FCF7A0125A3}"/>
+    <hyperlink ref="E34" r:id="rId10" xr:uid="{3944C41A-5A7B-46DD-9A45-8D45DBB1F377}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/BadSmell.xlsx
+++ b/BadSmell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josea\Desktop\ESPOL\VI SEMESTRE\Diseño de software\Refactoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F385D0C-50BC-4F58-AD0B-F3F1CD920751}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9A0525A4-65E0-4A06-A930-663CE777ABAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{EB634AAE-9329-4A58-A475-CFC50D04BB14}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Nombre: Jose Andres Escobar L</t>
   </si>
@@ -153,10 +153,6 @@
 no estar relacionadas entre si.</t>
   </si>
   <si>
-    <t>Partes del código contiene grupos 
-iguales de variables</t>
-  </si>
-  <si>
     <t>*Preserve Whole Object: Cuando se requiere atributos de un
 objeto como parametros en un método, lo ideal es pasar todo
 objeto y que la extracción de la info ocurra dentro del método</t>
@@ -199,10 +195,6 @@
 esten en clases más relevantes.</t>
   </si>
   <si>
-    <t>Se refiere a clases que solo contienen
-atributos y metodos para acceder a ellos.</t>
-  </si>
-  <si>
     <t>*Encapsulate Field: Cuando se tiene variables publicas, lo 
 mejor es hacerlas privadas y crear metodos de acceso para
 ellas.</t>
@@ -272,13 +264,73 @@
   <si>
     <t>La clase usa atributos y metodos de otras
 clases causando una relacion bidireccional.</t>
+  </si>
+  <si>
+    <t>Refused Bequest</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Legado Rechazado</t>
+  </si>
+  <si>
+    <t>Cuando el hay clases que al heredar no
+tienen cosas en común o no usan los
+metodos que heredo</t>
+  </si>
+  <si>
+    <t>*Replace Inheritance with Delegation: Si hay herencia
+innecesaria, es mejor utilizar delegaciones de manera
+que la herencia se elimine.</t>
+  </si>
+  <si>
+    <t>*Extract Variable: Cuando se tiene variables muy complicadas, 
+es preferible almacenar cada parte o resultado de la misma en
+otras más representativas.</t>
+  </si>
+  <si>
+    <t>*Rename Method: Colocar nombres representativos para evitar
+confusiones en el código.</t>
+  </si>
+  <si>
+    <t>*Introduce Assertion: Muchas veces para poder realizar una acción
+se necesita que ciertos valores esten o sean verdad. Para ello es
+mejor realizar aserciones para evitar errores.</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/RefusedBequest</t>
+  </si>
+  <si>
+    <t>https://github.com/JoseAndresEscobar19/BadSmells_Refactoring/tree/master/BadSmell_Refactoring/src/Comments</t>
+  </si>
+  <si>
+    <t>Referencias:</t>
+  </si>
+  <si>
+    <t>El código esta lleno de comentarios que
+explican el código debido a que no es
+claro ni entendible.</t>
+  </si>
+  <si>
+    <t>Se refiere a clases que solo contienen
+atributos y metodos para acceder a ellos,
+sin código que trabaje en funciones adicionales</t>
+  </si>
+  <si>
+    <t>Partes del código contiene grupos 
+iguales de variables, complicando
+la identificacion de variables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,13 +348,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -327,6 +372,20 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -404,9 +463,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -415,57 +474,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,476 +870,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926FFE33-0100-4E7E-BBC2-F247778995F3}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C33"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="123.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="6" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="132.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>51</v>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="6" t="s">
+    <row r="8" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>53</v>
+      <c r="E10" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>55</v>
+      <c r="E12" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="12"/>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="7" t="s">
+    <row r="14" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>56</v>
+      <c r="E15" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="6" t="s">
+    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="13"/>
+    <row r="17" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="22"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>57</v>
+      <c r="C18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="7" t="s">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="12"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="12"/>
+    <row r="20" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="22"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>58</v>
+      <c r="C22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="12"/>
+    <row r="23" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="6" t="s">
+    <row r="24" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>59</v>
+      <c r="C26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="20" t="s">
+    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
+      <c r="C38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="50">
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C31:C33"/>
@@ -1294,6 +1448,14 @@
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{EB7899E5-4C6A-4FF2-A247-79117227C025}"/>
@@ -1306,8 +1468,10 @@
     <hyperlink ref="E29" r:id="rId8" xr:uid="{8C423089-D8E2-49D5-8000-2034DB8BDD16}"/>
     <hyperlink ref="E31" r:id="rId9" xr:uid="{2F4A76A8-219F-44F5-BC50-7FCF7A0125A3}"/>
     <hyperlink ref="E34" r:id="rId10" xr:uid="{3944C41A-5A7B-46DD-9A45-8D45DBB1F377}"/>
+    <hyperlink ref="E36" r:id="rId11" xr:uid="{809E926E-AC12-4C67-9C31-513FB59B4EBC}"/>
+    <hyperlink ref="E38" r:id="rId12" xr:uid="{2B6DAD13-935F-478C-BE6E-FCFD0AC9ECF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>